--- a/data/Subset1_WithDialogActs/Ladder problem 3_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 3_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
